--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/30_Erzincan_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/30_Erzincan_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62FE4F3C-F15B-48EF-8584-7F40496D3867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCE38012-5A52-43F4-84AD-C0D9F879ED4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{948BEE0F-9C4E-4D6A-8338-478062358644}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{47199A62-5E0D-4742-B793-83ED3E0278F7}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -933,13 +933,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{0E944988-7D84-4CA2-9C71-FED7BBF8A902}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F8C7319C-5200-4573-9402-E702C11FDBD5}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{A69B0A82-B9D2-4F9E-8A80-1EC55653AB3C}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{AD8A7636-68E3-4CBC-84AC-EE39521C1705}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{E1D3FEB1-CA40-4BC3-BEBC-2E468C578CBD}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{CB641E2B-5807-4902-A5AC-294C098176D6}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{C0F90B97-D960-4797-9577-79FBA859DD71}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{EC99B3B0-FE8E-47FD-80B4-5C2FB94865F4}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{4336CE9B-648C-43C9-BB04-E6A6DABDFDEC}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{ACD50812-2BEA-4961-9A6F-1DC07AD3A083}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{2910A972-EAB1-41B5-B4E9-B76D0B4EBFEF}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{54B827BB-F67F-4C3B-9A30-B29B5B845C21}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{CB6E669E-0726-4AB5-BD0F-3990896355F0}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{6CFCF996-1C04-4B9A-A8F8-AFF7CBA01E76}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1309,7 +1309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E04C1D2-9C1F-4172-B54C-3DA587DF3A5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED12AE83-3DF8-43AB-BE81-15C1761811E5}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2510,18 +2510,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{586595C0-A5D0-4FA9-B4DB-2268B7CA6957}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D53B0127-A133-47FD-B27F-4B2DE6FBA5D9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9D1B1679-76E2-4C90-B6E6-B1B85ACB473B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1A151623-EE46-40B0-96F4-49E5643EA4EE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2A0F3E96-3EAB-40E6-B4BF-40E2F54CFC15}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EAD259DF-E87D-4285-A8C7-E54327345185}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0CD16EBF-D75C-409E-9444-2597FCCFA208}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E0B06594-2333-4B8D-BEDB-211517A8D610}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B1B765A-4B54-4589-8FFF-87710D4ACC2D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{69593828-22FD-47C8-BF4D-CB071C2B648B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B408AC74-68B4-4C9F-BE08-E4952FA559EA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B4ED19EB-D4A3-4868-8C60-643E2B1FCF6C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BDC27156-D97E-4EA8-AF94-B20FC79145FE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2F79F803-D52E-4CFA-83F6-48613D6D03DB}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0EEFE030-EF32-4DF5-9E26-788123329760}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D6D3F8C9-AECF-4061-AAA5-DCF9DB8C2BA1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{083E3042-2AE0-4B8A-A8AE-E14E6CA147B9}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3C01DA45-42AE-4442-9BD9-D3A9A18B4DA7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{830575F8-A1FB-4164-9D5E-7958097A5CEC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4BB039E4-F610-4E47-8DE2-D8CEFCB9A646}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0F6D618B-29A4-4FDB-B3C3-CD0FE45430A1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{420C9BB9-569C-4B91-8797-56470217B313}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0411DBFC-C84A-4AC6-AC9F-C5EADE641E6A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0A1B1A72-C2F1-4201-BE8C-4C4989F0F0A2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2534,7 +2534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF007DB-0237-463C-827F-0DF2A195A4EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2890C672-FBA1-469E-925C-B491C59736EA}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3720,18 +3720,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{036FB517-39FC-40BE-8689-9540CF872A71}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{99F2C3AA-774C-497C-9A0C-7906A0F016E5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7141648C-140F-455B-8201-6986BD8F530C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{89812B0A-4189-465B-9AFC-BD774458DF07}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A841EAC4-9C4F-47A1-8F90-33D4EC11B41C}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C92C4816-3C0F-473B-B046-18B35FB4C7A3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A557E2A8-121E-4A5A-A49B-7F4D52F4D1DF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2DC4E6F0-C758-4816-909F-9A3BE1168CF9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{26451095-12E4-40C5-9D71-094E6AD73F28}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7C80BC7E-0728-4BF5-9914-359B46632A58}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2DF9BE0A-B393-4D64-8156-E0E8E434433E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7EAE878C-E255-4387-97F2-F0606AA789A0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7ABB5D97-36FB-4343-80F1-8670C16C3C9F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E91CFF09-816F-4001-B46A-4C0BF942D634}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6A79E466-6DB1-4966-8CE1-F51C3DCCE1EA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B03B41EC-7BF4-4E2C-B399-F78718140334}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1BA892A1-C540-4DD6-A197-3987EA8CF13C}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{25258D95-D567-4D11-B2EC-14AA94DDE665}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{12899890-C860-4B81-8489-94067B405395}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0720A178-0850-4985-854E-60F053DAEA82}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{073DAC63-5A85-4154-A9D6-5053FFE329E2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{43A33A12-62ED-41C3-A6C6-D2AA63600BD5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{40D0E8B9-1F5D-41DA-8950-8C3BEF98A32E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E5AF31B8-98C2-4D9D-A337-71FEA7243EF4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3744,7 +3744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1A0E37-9781-4AF6-A245-4DF1B6438B7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260DA174-4D5E-44C2-AF54-001FEB9E3739}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -4930,18 +4930,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3B356976-F276-475B-AA53-3DAC57BDE628}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EA1EA012-73B4-4FF5-AFED-DE2C42875C31}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{05D4DE65-D40C-4B7E-BAA8-56B3191CED44}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4F09A951-CA6E-4069-B2E2-E56984327E0D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2D01E789-2DDA-437B-83BF-B5C60AAB7F0E}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{12D87A37-7226-4465-8606-EBE360123559}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B68D0C0B-CEC8-4A41-960B-5D83A0E30728}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{118B3A92-0A63-4278-836D-17DE18D8AEA3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{78882B95-2045-4586-B72D-536EB4451214}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FFFAD98C-D419-4245-A6A7-E05639A47183}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B9593DC5-7E16-4DE7-A490-766337C7A370}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DBB110D5-A1E4-4CB0-A62D-97CFDE4A331B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{05DF8E4B-25C1-4302-A807-753F71CCF08A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{37F4B7AE-9FF3-4594-A084-27463317D710}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{46DEA6E2-8537-4C8E-BE5F-554E5CB44108}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{36727867-B6DC-4722-AB6A-99740CC07FCC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{764B9A61-D342-4729-B6F0-6DAF125156F1}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A79372FD-8A6C-47E1-B76F-5ADA426FE796}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F705F414-CF12-4985-8094-DED37F9A0FD9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F7A054A7-0908-41E3-9808-BE655218AF0C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C897BC12-8D0A-4BBA-B858-2F163253F712}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0300D181-EAC8-41AE-B777-B35BDBFBA06F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EAE0F66D-2C47-40A1-8B74-FCBFCE19F4D2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1BA02805-E55C-416D-B1DC-E7A485474C50}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4954,7 +4954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC81713B-55C7-4648-9FCF-92D5CE8067C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3827AB54-C040-4EBC-A0D7-B3C1041E5376}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6136,18 +6136,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CFFAA78A-8E4C-4533-9FCF-A896A74F2D8E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{90F1B0F7-47A7-4B77-A5EE-B52013043413}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D533DA69-057E-4FDC-A12D-6BAAB32AE4CE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CCDE3088-CD8B-4D37-8604-E6B135C3FDFC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5D38C801-BF90-45DE-BAEA-FD827C7ADF22}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0E58A6D8-1F60-4FDA-A792-AD2E5525AFF7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3B4305EA-1B20-4F1B-AE8F-8C488C38642F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B4571D81-0930-49AD-BB2F-2E61FAE7B0FB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5E51F383-8E47-41E5-BF15-548F19D86A5E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{55A2A54D-3E2E-4206-8E89-470376AA048A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B3763C18-6521-42C1-BC0C-E705515BEC95}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{575BDED5-E035-4D25-8A22-0D70FE179D0A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1C6267E0-FBBD-45A1-B9EB-6AC5CAE810B4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8F0302DA-EC32-43D7-B3B0-64C636E2E99F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{71EC4B5A-00F1-420B-AA1F-9C82E9374848}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1DA3EABC-3DF9-4842-9EFD-CD0E76554299}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C7D738A9-10EF-4FE8-A83A-5C2D6A9DD9B9}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8AF7C663-D350-4F97-A3E0-055EAB696AE6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{514B8EB4-ABEB-4FA1-BE74-5BEC50CEE153}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C59D379D-6002-4243-B2D4-21F3875256C4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4858BD2C-9564-43EE-B3FB-001D138B0A9C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{12B923B0-80FD-49DE-8F8F-1ED1F4AF32C1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AADFE5DC-31A0-4131-9C0B-2FF82385018F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7D2E64EF-744D-4FDF-BF51-973EFED509D4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6160,7 +6160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56BF7F6-10F8-413B-BF82-DED6B9202F3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C5C2C8-1779-460D-A875-96344D90551F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7363,18 +7363,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DE2AC6BE-58B9-4F91-95E0-CA257EE1D0C3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0306A8A9-BB39-4837-A92A-5E67D4D2591E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AC0B2C44-52FC-4C5D-8FD9-EB67F27381CB}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{62CCD709-B01E-4BC8-A43A-D5C9FF86D9ED}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3854C6C3-6DCC-41B7-A92C-098FE16DA0A1}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6BF55AAB-3187-4EB2-9F09-46A9819C0056}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F15D5054-252A-4FF2-AB91-220C931F4D03}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EDEB05CA-D57C-4A48-8169-9C38DE58C656}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CE3396EF-1B47-4F8E-B7DD-4AE6B910E5DB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{68941F97-626C-4EDF-8F38-22411D16F9BE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F35349C5-1F64-4F87-BA75-F5307E3EA8F7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{00E8F34A-745E-4DFA-891C-A342FBE683A3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C3CD03DD-7193-496C-A429-7212C79F5ADC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9BB38859-3A69-4F5F-A713-8A0F7FD11F2D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0D6752C7-3984-4D28-A8AA-AB79B4CC3D52}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9E96BDC7-98F0-498B-9C26-8F7050AFB4D7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6539C23D-0581-473B-B2F9-2FF3DF3E917B}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D08511D8-BDAF-4EBA-ADFF-BEFEA02FB5EE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{24441ADE-1E70-4C47-9C20-793773F4BD5D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CC56E078-7041-4E59-A654-7487DBC42CA4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{93E96216-6757-42C1-92CE-B0CF65CED019}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{08CE77A8-0A29-482E-AA65-87FA9A77E86B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{24A14E3E-F302-490B-A24B-33ADC2806CA8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D48BAD1D-D158-4989-B642-E40005D10EAF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7387,7 +7387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F72C584-CE78-411F-9238-0362243C0A50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9FA3E0-00EF-4C2F-AC49-A0F3A583D6C3}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8592,18 +8592,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3AD60CAF-2664-449C-BE2C-6D11167C34A6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8268EADE-AB5B-4329-B4C2-111F177215EB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5556E56D-6CD0-41B9-AC18-27B79C4B5072}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{31232EAA-98A9-4BC0-93B7-D92D16054E3F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1ED89437-C8AF-4BC4-893E-67F2D996365E}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1F801F18-CCBF-46D2-AEDD-0956078EAB12}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{68E8446E-9E94-45A1-A828-D84D5562021C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{91107F22-9618-47C8-99B7-50C83B3A5ACE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{38999529-2CA5-47D2-9F2A-59E89DD0EBD9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{501557CD-089F-4CF5-99F3-45221AA8601C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0F2D6C34-EA88-4EB0-BB2D-0ACF32DAF468}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E2713CFE-8CC3-4D41-8F3D-50CC6A602B90}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0507AB89-A7BA-435E-BD37-AC5354AF769D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AA9FDC32-D2DA-421D-A699-80B3C80269AC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6246624A-0E6C-4476-A1D6-D1583CECFC6B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A09E79F4-4CAB-4265-88DB-9A24961498A9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E8C0C9E8-0FC4-4FB4-8B79-263A1F5DE10A}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2B03F270-BD3E-4694-9D05-1421023DA7E3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CD6E8DB3-02E8-4A07-B90A-916967535813}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EF30D4F0-D644-42E1-8310-0D1F16E0C2B2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4879DE4F-86D3-44A8-93AF-79B9457BFC14}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{97B925D1-7305-491F-B4CC-A16E7C7A2C37}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5401AA64-7DB4-45A9-B07F-753531F70D4E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A626E34C-174A-4C64-BC65-28DE7CDA5793}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8616,7 +8616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6245CD49-83AF-4E5A-95A7-94B3C9E5D1B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F13952-72E0-48E9-BD3D-420B43D22629}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9821,18 +9821,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{739F9287-DB9F-445A-917E-A30C90F1D4E3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{792E9463-7C71-4197-A714-D52AB18FF723}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F7CFCC24-20D1-4C9D-B00E-5E3BF3E22253}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2FE75C02-1348-4153-9E0C-7E619600214E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D8D74271-3AB1-4ABB-B15F-FF544BD5A0DA}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8FA29DBE-766A-46A4-95B2-CFE854111897}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4E799379-9D94-4599-82DB-52F959646C7B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{569EABFB-DC1C-4125-B4EF-F94467C65434}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{294EB322-FC5E-4816-9138-ADB240264ADA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F863D78C-9762-45B1-A117-0DE0CA507450}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5BB2E0CB-5EF3-445C-BCE2-82D5BC850C1A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8E1A080B-C0BD-4B90-9B4D-4667CD9A8D4A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3C268C5E-B39A-4FC2-A2BE-0524C0B185C8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CCF2227D-28B3-4FA9-BE15-56226D949AAF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CA4E3CB9-A0BC-401C-9C44-0DE4C7218C61}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3D856F73-0DED-497E-8BAB-0AEEA9612515}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F80932BB-BD2E-4466-9F1C-7D27148A72D5}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{18265BE7-4C9F-4982-8F82-1847BC56D7A7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E0530F79-287B-4005-B345-3C110D0CC0FC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5C39E0CD-B81A-4C84-8C88-285BF00C485F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4269CC3E-0887-4745-AC5B-442AFA8A2455}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B3A54558-C71F-4382-8C59-A7CCC4B1D7E5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9AC77E32-03C3-4888-9CAD-1EDBAA19BF7C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FCBF6EBB-1A14-4760-B8C8-C5E41CA39030}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9845,7 +9845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1712C22E-E9DA-4873-9F7B-03E4CBB8C29B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA78697B-45A4-4CC3-9F65-CE9660D21732}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11045,18 +11045,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CE4E480D-6583-468F-894B-33F63D1C278A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{03696B6F-8352-42ED-9CB1-B3F3D1BACFF8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7832EC50-8546-4307-94A4-FD3461426609}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AAB7FA1D-9642-4B91-AE67-A6943CA9B86C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{50074D6C-2D72-4BEC-8769-E5FF9456CE6B}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9702866F-B206-4CB0-8A8B-747BC95A5B3E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7EB83647-7F7D-47CA-A0E4-984689F4437C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E1FDB568-833A-4D27-B8CD-3BA248632430}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E15BEB61-E7FD-41CB-9DCC-9EF86F784336}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{67FCAFF1-BAEB-4A6D-B2C0-FC2DF34927FE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F36F6C93-4B01-4DA7-96C3-907C0F517F99}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{13F90DBA-BD4B-437D-9049-4D1CB97D782B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1CD02F24-5964-49E6-AD80-A35329ADA7E2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6DB06247-5260-49CC-B340-4F31759CB044}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DC4B1E9C-DECA-47BD-82DB-7F073A32F090}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3297C867-322B-43C1-9CC0-72B6C7B1ED2A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2BF3BB89-693D-4288-9613-C91972819176}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DE2B1695-840B-4438-A85E-2EA055825268}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{968F6557-ED15-4FDE-98DE-4BA78DB6029D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0771146D-6076-442E-B3BF-ED77468CACFA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B081618A-942F-4B90-AF17-A999EFF363C2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9E1FB1FF-D2FA-447F-A4B7-A19E1B9DF242}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DA563783-5F94-48D9-A2BC-CD792AB6C054}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B5D2FF1C-852B-4E48-B5A1-12AA4C02E921}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11069,7 +11069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85327AA2-1735-4CEA-84E7-3615B6A7E532}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0B0095-B171-43F5-A18A-269FFB98995C}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -12269,18 +12269,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{93491413-2B45-4FB5-9EE1-FA733F472991}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{39478D1B-41EC-45A3-8D95-8FDE8C5FE595}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E70B632C-648A-4572-99B3-17F813491A96}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4D286BAE-A6F8-4DBB-AFD3-E03C5A847AB7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8EEFEF9C-9FF9-4EA7-9E48-26D3B0F163C3}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7A4FE0C3-281D-42BE-B18C-1E073566C96B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FBF66FBE-2FA7-4606-A973-5C256EE7A5E1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{99AC637B-A8A5-4D41-879C-D83BF341E356}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4959A555-C672-423A-A1A2-06943156D303}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{336837F2-71EA-45B7-B012-9DAE1FA1429B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C5C567B3-4CA9-4BDA-B978-C9FE6776C55C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CC5E4B35-F628-4AAF-A52A-0FEA4BAA1DBE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7C25F4E5-418C-4E04-85B5-C572C3648807}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{802CE4E8-EA5E-4A3F-8337-EB7E7F7900D1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6F009A25-1C3D-41FE-9788-60E7629E7C6A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{78A4153D-C7A1-46B9-BDC9-248EACD1EBE1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{837BB7AE-4500-4A99-BC68-F9F294657E80}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C32618DF-3A59-45D5-9428-9A86AC11591A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EA91D2EC-D2F6-42EB-8E15-A6A739CBF570}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1AE25F13-D7A0-43F6-A248-E95C9C3B25DB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{78EE99F8-EECE-47D2-A5A8-965C9EDBE812}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C8B1AE6B-26A2-4EBA-BEB1-3834DACBFBFE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{07FE87F3-6583-4E21-99F4-AE86854647BF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FCCBB2ED-43FA-4344-984F-ACF26E77681E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12293,7 +12293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E49F647B-3866-4AC0-8FEC-7755F5B3930E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A2C424-E22A-42E9-8C9A-412A51B92AD7}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -13493,18 +13493,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F8E02EAA-E326-4637-853B-62F9EFE0565C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6A69B984-F99D-495E-B9D3-685929AC9D54}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D511592B-2F00-4761-8127-0E1EE7575F90}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8805A450-E95F-4BF5-957E-01F0478E3658}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{26A31CA7-C78F-4423-974A-84F123AB0C6F}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9A9CB4E9-DA57-49B2-B613-36F55C3B2312}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D7F6FAEF-7272-4184-8F55-73E27B6A144C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{40ACF321-CD81-40E0-972C-6DDD880C8A2F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{18EE5D09-2D00-435D-A65B-F5B701157E9A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{72E4BE7B-661E-451F-BA5D-11A3D0EA2049}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B29CED0E-8BF3-4A52-873E-6C2CF5843CC0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{37BB0FD6-C3C3-41EB-BC7B-7A27E263BAB1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{99910114-26C1-41C6-9474-1C70634D9041}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B68C7B5D-118A-49FE-9994-D73637B56396}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{75F3541A-11AD-4FF6-B3AA-74C265302C26}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{423E297E-80F9-4646-8AF3-6186167C7219}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{741C6E72-1EE5-47B4-BC15-B98779A1217D}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{226CD9AE-E2FA-45C5-BA5E-635CAE57C128}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{043E2755-91BD-4F6A-BF86-D1AAC338F4C1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EABE3BEC-EA6C-4D78-AD0C-F1023F87F98C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CFF69113-A0FC-4EB0-970E-42EB8932E778}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{503A529D-B5D7-4E9D-BB0D-59CF3227BB94}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9ACB2DA2-79EA-47E5-A135-E2D8AED16D94}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{71E7A641-8709-4253-81D4-FF4D69D3CF8E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13517,7 +13517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97DC385-AC1E-48AB-B75D-24A06FF87A21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACBF838-75C3-434D-8C76-119FA79AE050}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -14719,18 +14719,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A8330A29-D54C-4EA2-8656-27FE23EC6FAE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C1A689F7-29B7-49B1-9C15-E8A81C6FAD4E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A1584606-D2A6-4275-82A4-0B4202E16966}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{83F4490E-7D2A-4B83-9090-472BDFD0B3D0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{827CB38A-6C22-4FA1-874D-A1FBDA1A08FA}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7186CCDE-0EE6-45C9-89EB-F5EFE4EFD3A1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AF5BE973-047E-4B5B-945A-7C87CEEFD1E0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{946B98AF-CDF5-405B-8550-C353A4AEA3F7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{80D24806-8120-424E-9B3B-297EF0881B4B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8F356767-49A8-48C7-A508-4B8AB971CD15}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3D65B500-A882-490B-BA61-371988932F86}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E155DC86-A6BA-4995-BAA0-30808F3999AD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3D7FE328-BA8F-40FB-8EFC-93A64E14DFCF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{93B12CE5-4C7E-41EE-93F0-BE6F4DFDE604}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E3BB0988-D4F7-4C01-88AC-7038F7A79F5A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{DA90AFD2-C8CB-4D5A-BE32-D66CDF810CDE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EDEA7EDE-7EC6-430A-A753-FC0297EDFFF1}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DFFDA489-093F-4AB6-9486-A83C9685F104}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{67C2BE4D-7C86-477B-96B8-DFA6008189AB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{24AC272B-9280-48D9-8A3E-A13ADED443BB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{53D19E72-0C29-46B3-9787-5ED12AA99176}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DDA92394-1CB5-47EE-B77E-6A536F920921}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F8555ECE-5781-4AF4-BEFD-22846848FE57}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E763B098-9D36-43C4-B820-BC46E4D5CDF9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14743,7 +14743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC3E443-1D9D-4945-A366-17F19498E655}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA1C3AA-C250-4101-BEB3-B499A49AAAF3}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -15945,18 +15945,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{47D90A43-0CD2-4403-B6B6-A16AC2C558D3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DFB89490-2A48-431F-9C7B-FF05916E491D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{21370623-09ED-4962-9E4F-6CE6E5676001}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EDF455C9-29B5-4BE5-87BB-38715174DDE2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{51AD3C21-4E58-4E35-96CA-D68B60045746}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5101C413-C707-4E2C-B01B-BA4F24077A55}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{87BF32AE-7796-4337-B3A7-84DFD1C98089}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0ABE55CC-38EC-4B36-B348-B9A5F89F951B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A656021D-59BE-483D-9B39-223A412C1369}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{01FBDFB7-CFC3-4347-B540-DFCE05D82C38}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4DF1E0EE-518B-4A33-B9D8-3A5CA6B20CCE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0A5D1449-9C48-4441-8BAE-3A8B7D8F9615}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BBE2C930-2139-4D3A-9D8C-79A7AE73F686}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E90D6349-D2CB-4C03-8188-DC197B523B71}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{78DCA2B7-6040-43B3-AB06-AEB828849C1E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3EFFFEA8-2300-4952-81F4-CE7FCC75F424}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7553BEC5-FD74-4C89-A8D7-DF506F43F0FD}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{56A1C706-8D4F-4A76-AD91-A5E35FAD3730}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D0E551C2-5936-4225-85A2-E722D74A28B6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5C50ED46-2FAF-4A03-AF99-9B4EECFF91E9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D8CBA20A-0DAE-4336-AC2C-582313016861}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3759A9B6-700A-4E11-B9DE-50AF67967B94}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AA4FD472-48F8-47A5-AF5B-E7D4DE0644B6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{042648FA-9B69-4449-8949-AE7E89217DD7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
